--- a/Code/Results/Cases/Case_5_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_203/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.64661085604567</v>
+        <v>16.39505822365225</v>
       </c>
       <c r="C2">
-        <v>8.563320045787162</v>
+        <v>8.525222701492561</v>
       </c>
       <c r="D2">
-        <v>2.679854529043857</v>
+        <v>5.390011855418382</v>
       </c>
       <c r="E2">
-        <v>7.11397142820932</v>
+        <v>11.57574284004627</v>
       </c>
       <c r="F2">
-        <v>39.06873455809529</v>
+        <v>49.57651527291281</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.14635311770413</v>
+        <v>10.29394382703299</v>
       </c>
       <c r="K2">
-        <v>13.66531623375286</v>
+        <v>15.97252694999251</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.76002844332384</v>
+        <v>18.23634088441713</v>
       </c>
       <c r="N2">
-        <v>17.22623649985439</v>
+        <v>24.5982423150714</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.77502521965005</v>
+        <v>16.23565866884608</v>
       </c>
       <c r="C3">
-        <v>8.043309419610136</v>
+        <v>8.425275859132224</v>
       </c>
       <c r="D3">
-        <v>2.585514362296278</v>
+        <v>5.396439464675019</v>
       </c>
       <c r="E3">
-        <v>6.979292365052628</v>
+        <v>11.58537427125237</v>
       </c>
       <c r="F3">
-        <v>38.16526727226876</v>
+        <v>49.48887899350202</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.14319936379123</v>
+        <v>10.31127922875067</v>
       </c>
       <c r="K3">
-        <v>12.98402169977743</v>
+        <v>15.87701324052386</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.33489033127214</v>
+        <v>18.21572541783835</v>
       </c>
       <c r="N3">
-        <v>17.32284090742854</v>
+        <v>24.63127097962127</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.22492208072616</v>
+        <v>16.14159039517517</v>
       </c>
       <c r="C4">
-        <v>7.713528150315932</v>
+        <v>8.365915977353689</v>
       </c>
       <c r="D4">
-        <v>2.527177393135908</v>
+        <v>5.40131855331923</v>
       </c>
       <c r="E4">
-        <v>6.899410948474187</v>
+        <v>11.59314335261705</v>
       </c>
       <c r="F4">
-        <v>37.62752669124139</v>
+        <v>49.44419366543298</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.143740544147705</v>
+        <v>10.32301801257107</v>
       </c>
       <c r="K4">
-        <v>12.55763823719378</v>
+        <v>15.82216627869774</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.07526200597869</v>
+        <v>18.20674977420801</v>
       </c>
       <c r="N4">
-        <v>17.38725486531093</v>
+        <v>24.65339467434958</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.99722389813417</v>
+        <v>16.10425483877729</v>
       </c>
       <c r="C5">
-        <v>7.576602833136448</v>
+        <v>8.342260119897347</v>
       </c>
       <c r="D5">
-        <v>2.503340416182206</v>
+        <v>5.403541818846189</v>
       </c>
       <c r="E5">
-        <v>6.867585008253966</v>
+        <v>11.59677618763764</v>
       </c>
       <c r="F5">
-        <v>37.41274244791293</v>
+        <v>49.42828629178091</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.144567952948965</v>
+        <v>10.3280771910496</v>
       </c>
       <c r="K5">
-        <v>12.38206750283786</v>
+        <v>15.80079021640762</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.96994366379564</v>
+        <v>18.20402125706597</v>
       </c>
       <c r="N5">
-        <v>17.41474550227574</v>
+        <v>24.66287388062727</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.95920960610345</v>
+        <v>16.0981167495188</v>
       </c>
       <c r="C6">
-        <v>7.553716859758344</v>
+        <v>8.338365141916627</v>
       </c>
       <c r="D6">
-        <v>2.499379645100575</v>
+        <v>5.403925197621162</v>
       </c>
       <c r="E6">
-        <v>6.862344754586942</v>
+        <v>11.59740762248292</v>
       </c>
       <c r="F6">
-        <v>37.37734257760117</v>
+        <v>49.42578413543126</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.144741534618257</v>
+        <v>10.32893391189463</v>
       </c>
       <c r="K6">
-        <v>12.35281139665714</v>
+        <v>15.79730012768233</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.95248869786455</v>
+        <v>18.20362438668594</v>
       </c>
       <c r="N6">
-        <v>17.41938415652623</v>
+        <v>24.66447589549005</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.22186519748383</v>
+        <v>16.1410827805129</v>
       </c>
       <c r="C7">
-        <v>7.711691641664784</v>
+        <v>8.365594747687268</v>
       </c>
       <c r="D7">
-        <v>2.526856124667029</v>
+        <v>5.401347584913045</v>
       </c>
       <c r="E7">
-        <v>6.898978766683518</v>
+        <v>11.59319045559868</v>
       </c>
       <c r="F7">
-        <v>37.62461232523508</v>
+        <v>49.44396980210765</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.143749266621842</v>
+        <v>10.32308512650862</v>
       </c>
       <c r="K7">
-        <v>12.55527747282968</v>
+        <v>15.82187402361793</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.07383951651967</v>
+        <v>18.20670921074456</v>
       </c>
       <c r="N7">
-        <v>17.38762063838385</v>
+        <v>24.65352063719082</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.34931284588384</v>
+        <v>16.33933335829825</v>
       </c>
       <c r="C8">
-        <v>8.386249712963579</v>
+        <v>8.490361969501469</v>
       </c>
       <c r="D8">
-        <v>2.647433985489228</v>
+        <v>5.392034872055737</v>
       </c>
       <c r="E8">
-        <v>7.066962136944093</v>
+        <v>11.57867890912999</v>
       </c>
       <c r="F8">
-        <v>38.75373810059726</v>
+        <v>49.54440998367918</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.1447416027583</v>
+        <v>10.29969399727489</v>
       </c>
       <c r="K8">
-        <v>13.43219522450776</v>
+        <v>15.93881741590485</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.61322216148518</v>
+        <v>18.22847048921924</v>
       </c>
       <c r="N8">
-        <v>17.25846200364795</v>
+        <v>24.6092478494735</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.43410663422395</v>
+        <v>16.75636212660856</v>
       </c>
       <c r="C9">
-        <v>9.626464874361952</v>
+        <v>8.749640890341674</v>
       </c>
       <c r="D9">
-        <v>2.879082897666674</v>
+        <v>5.381147751617591</v>
       </c>
       <c r="E9">
-        <v>7.417849285965398</v>
+        <v>11.56492542711219</v>
       </c>
       <c r="F9">
-        <v>41.09968571038937</v>
+        <v>49.81334306824603</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.167101735010595</v>
+        <v>10.2625002116527</v>
       </c>
       <c r="K9">
-        <v>15.08050407818855</v>
+        <v>16.19736501944233</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.67711537542507</v>
+        <v>18.30019734324537</v>
       </c>
       <c r="N9">
-        <v>17.04765046328381</v>
+        <v>24.53706314533298</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.88219057815714</v>
+        <v>17.07729917188323</v>
       </c>
       <c r="C10">
-        <v>10.56551918878059</v>
+        <v>8.947217428870426</v>
       </c>
       <c r="D10">
-        <v>3.044575501809367</v>
+        <v>5.377610476326076</v>
       </c>
       <c r="E10">
-        <v>7.687694970735897</v>
+        <v>11.56375586316005</v>
       </c>
       <c r="F10">
-        <v>42.90043111538049</v>
+        <v>50.05413698946136</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.197071542650524</v>
+        <v>10.24044919917012</v>
       </c>
       <c r="K10">
-        <v>16.24784760635618</v>
+        <v>16.40380482387852</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.45689012060457</v>
+        <v>18.37034949442822</v>
       </c>
       <c r="N10">
-        <v>16.92176413891312</v>
+        <v>24.49295535631567</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55889569897242</v>
+        <v>17.22586761958407</v>
       </c>
       <c r="C11">
-        <v>10.97586901392282</v>
+        <v>9.038242865189755</v>
       </c>
       <c r="D11">
-        <v>3.118550626862056</v>
+        <v>5.37696164040238</v>
       </c>
       <c r="E11">
-        <v>7.812890442239332</v>
+        <v>11.56515551078176</v>
       </c>
       <c r="F11">
-        <v>43.73613980286484</v>
+        <v>50.17288486241435</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.213902359661367</v>
+        <v>10.23156002572408</v>
       </c>
       <c r="K11">
-        <v>16.87518927377517</v>
+        <v>16.50099017372074</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.81037591587666</v>
+        <v>18.40598589497818</v>
       </c>
       <c r="N11">
-        <v>16.87157953003067</v>
+        <v>24.47482904465743</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.82628634783738</v>
+        <v>17.28244610970782</v>
       </c>
       <c r="C12">
-        <v>11.12892134059221</v>
+        <v>9.072843642523697</v>
       </c>
       <c r="D12">
-        <v>3.146356156505461</v>
+        <v>5.376853225500351</v>
       </c>
       <c r="E12">
-        <v>7.860638403193628</v>
+        <v>11.56596233606286</v>
       </c>
       <c r="F12">
-        <v>44.05499270753283</v>
+        <v>50.21915784560939</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.220758282974707</v>
+        <v>10.22835787249782</v>
       </c>
       <c r="K12">
-        <v>17.10890517210018</v>
+        <v>16.53823512940017</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.94400729249364</v>
+        <v>18.42000917043437</v>
       </c>
       <c r="N12">
-        <v>16.85366917994007</v>
+        <v>24.46824396038389</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.76888391817023</v>
+        <v>17.2702475527388</v>
       </c>
       <c r="C13">
-        <v>11.09606135154635</v>
+        <v>9.065386430792497</v>
       </c>
       <c r="D13">
-        <v>3.140377216816295</v>
+        <v>5.376870482185145</v>
       </c>
       <c r="E13">
-        <v>7.850340087137194</v>
+        <v>11.56577627740261</v>
       </c>
       <c r="F13">
-        <v>43.98621527216061</v>
+        <v>50.20913437115427</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.219259901597141</v>
+        <v>10.22904022396392</v>
       </c>
       <c r="K13">
-        <v>17.05873916087501</v>
+        <v>16.53019451391102</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.91523799064274</v>
+        <v>18.41696561697125</v>
       </c>
       <c r="N13">
-        <v>16.8574765755067</v>
+        <v>24.46964976628758</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.58097760550057</v>
+        <v>17.23051626872378</v>
       </c>
       <c r="C14">
-        <v>10.98850707314149</v>
+        <v>9.041087048783774</v>
       </c>
       <c r="D14">
-        <v>3.12084245312871</v>
+        <v>5.376949974443404</v>
       </c>
       <c r="E14">
-        <v>7.816811952218254</v>
+        <v>11.56521634710816</v>
       </c>
       <c r="F14">
-        <v>43.76232397654452</v>
+        <v>50.1766657119726</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.214456595865549</v>
+        <v>10.2312932974993</v>
       </c>
       <c r="K14">
-        <v>16.89449352185819</v>
+        <v>16.50404562373213</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.82137458424823</v>
+        <v>18.40712904739027</v>
       </c>
       <c r="N14">
-        <v>16.87008365970917</v>
+        <v>24.47428169398224</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.46533592527284</v>
+        <v>17.20621971554718</v>
       </c>
       <c r="C15">
-        <v>10.92232508862188</v>
+        <v>9.026219101866683</v>
       </c>
       <c r="D15">
-        <v>3.10884935866692</v>
+        <v>5.37701651953432</v>
       </c>
       <c r="E15">
-        <v>7.79631888515986</v>
+        <v>11.56490939148091</v>
       </c>
       <c r="F15">
-        <v>43.62549600338581</v>
+        <v>50.1569471866949</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.21157796267906</v>
+        <v>10.232694718761</v>
       </c>
       <c r="K15">
-        <v>16.79339151341696</v>
+        <v>16.48808551836724</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.76385001415533</v>
+        <v>18.40117248018343</v>
       </c>
       <c r="N15">
-        <v>16.87795063751235</v>
+        <v>24.47715521764895</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.83998478186982</v>
+        <v>17.06763727638203</v>
       </c>
       <c r="C16">
-        <v>10.53836994037174</v>
+        <v>8.941288910200464</v>
       </c>
       <c r="D16">
-        <v>3.039713000901092</v>
+        <v>5.377672135372411</v>
       </c>
       <c r="E16">
-        <v>7.679561170075054</v>
+        <v>11.56370318385756</v>
       </c>
       <c r="F16">
-        <v>42.84614845004301</v>
+        <v>50.04656030631167</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.196037852271939</v>
+        <v>10.24105308724868</v>
       </c>
       <c r="K16">
-        <v>16.20695755178961</v>
+        <v>16.39751706114895</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.43375953274197</v>
+        <v>18.36809492574407</v>
       </c>
       <c r="N16">
-        <v>16.92519255868794</v>
+        <v>24.49417897862668</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.46801102461908</v>
+        <v>16.98324403330273</v>
       </c>
       <c r="C17">
-        <v>10.29856998055178</v>
+        <v>8.88945681017446</v>
       </c>
       <c r="D17">
-        <v>2.996950114042699</v>
+        <v>5.378319733818808</v>
       </c>
       <c r="E17">
-        <v>7.608549683406015</v>
+        <v>11.56345732070496</v>
       </c>
       <c r="F17">
-        <v>42.37227639750974</v>
+        <v>49.9811876296212</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.187339084459438</v>
+        <v>10.24647299653719</v>
       </c>
       <c r="K17">
-        <v>15.9079340362276</v>
+        <v>16.34277540055666</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.23090235398689</v>
+        <v>18.34875193894442</v>
       </c>
       <c r="N17">
-        <v>16.95603864407666</v>
+        <v>24.5051191514309</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.25230007279501</v>
+        <v>16.93494849097583</v>
       </c>
       <c r="C18">
-        <v>10.15905362248113</v>
+        <v>8.859754300381685</v>
       </c>
       <c r="D18">
-        <v>2.972231774162521</v>
+        <v>5.378782653834124</v>
       </c>
       <c r="E18">
-        <v>7.567936038635622</v>
+        <v>11.5634977923832</v>
       </c>
       <c r="F18">
-        <v>42.10127207430531</v>
+        <v>49.94445505880805</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.182635295300906</v>
+        <v>10.24969788419579</v>
       </c>
       <c r="K18">
-        <v>15.73483753439652</v>
+        <v>16.31159942055047</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.11410945054</v>
+        <v>18.33797732429346</v>
       </c>
       <c r="N18">
-        <v>16.97444209486417</v>
+        <v>24.51159410257001</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.17896214591205</v>
+        <v>16.91864012132312</v>
       </c>
       <c r="C19">
-        <v>10.11154042040974</v>
+        <v>8.849717449153061</v>
       </c>
       <c r="D19">
-        <v>2.963842219722607</v>
+        <v>5.378954947042629</v>
       </c>
       <c r="E19">
-        <v>7.554224934207587</v>
+        <v>11.56354276170218</v>
       </c>
       <c r="F19">
-        <v>42.00978190019301</v>
+        <v>49.93216767038049</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.181093448533495</v>
+        <v>10.25080824556202</v>
       </c>
       <c r="K19">
-        <v>15.67604134257055</v>
+        <v>16.30109784558216</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.07454744373715</v>
+        <v>18.33438970392435</v>
       </c>
       <c r="N19">
-        <v>16.98078466070961</v>
+        <v>24.51381774025199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.50779069795832</v>
+        <v>16.99220282872944</v>
       </c>
       <c r="C20">
-        <v>10.32426107160404</v>
+        <v>8.894963290668453</v>
       </c>
       <c r="D20">
-        <v>3.001515100936847</v>
+        <v>5.378241441451371</v>
       </c>
       <c r="E20">
-        <v>7.61608524273059</v>
+        <v>11.56346467537581</v>
       </c>
       <c r="F20">
-        <v>42.42256005978315</v>
+        <v>49.98805695083229</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.188233925461581</v>
+        <v>10.24588491381205</v>
       </c>
       <c r="K20">
-        <v>15.93988035737578</v>
+        <v>16.34857086239095</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.25250914086918</v>
+        <v>18.35077475829693</v>
       </c>
       <c r="N20">
-        <v>16.95268603464912</v>
+        <v>24.50393566684655</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.63628331489949</v>
+        <v>17.24217806401092</v>
       </c>
       <c r="C21">
-        <v>11.02016112180617</v>
+        <v>9.048221064890543</v>
       </c>
       <c r="D21">
-        <v>3.126586043607184</v>
+        <v>5.376922906440705</v>
       </c>
       <c r="E21">
-        <v>7.826650848231107</v>
+        <v>11.56537330802837</v>
       </c>
       <c r="F21">
-        <v>43.82802120631858</v>
+        <v>50.18616726315032</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.215854160799402</v>
+        <v>10.23062706656099</v>
       </c>
       <c r="K21">
-        <v>16.94283974347156</v>
+        <v>16.51171439117716</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.84895096084375</v>
+        <v>18.4100040001025</v>
       </c>
       <c r="N21">
-        <v>16.86635033652207</v>
+        <v>24.47291361216674</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.40687838882999</v>
+        <v>17.40738613245049</v>
       </c>
       <c r="C22">
-        <v>11.46138918064926</v>
+        <v>9.149134643911344</v>
       </c>
       <c r="D22">
-        <v>3.207113132761565</v>
+        <v>5.376860958288924</v>
       </c>
       <c r="E22">
-        <v>7.966242051918647</v>
+        <v>11.5682336252155</v>
       </c>
       <c r="F22">
-        <v>44.76052304757201</v>
+        <v>50.32324487294807</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.236729432730123</v>
+        <v>10.22161089307628</v>
       </c>
       <c r="K22">
-        <v>17.61609545975847</v>
+        <v>16.62090660858221</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.23743470729744</v>
+        <v>18.45179084824575</v>
       </c>
       <c r="N22">
-        <v>16.81633963783926</v>
+        <v>24.45426496992797</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.9977910869111</v>
+        <v>17.31906046751383</v>
       </c>
       <c r="C23">
-        <v>11.22711023563597</v>
+        <v>9.095217441733709</v>
       </c>
       <c r="D23">
-        <v>3.164250662695236</v>
+        <v>5.376821120165078</v>
       </c>
       <c r="E23">
-        <v>7.891561771916837</v>
+        <v>11.56655979081362</v>
       </c>
       <c r="F23">
-        <v>44.26153975532456</v>
+        <v>50.24939504236414</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.225321605106158</v>
+        <v>10.2263356240086</v>
       </c>
       <c r="K23">
-        <v>17.25876634930398</v>
+        <v>16.56240308225706</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.03022559288577</v>
+        <v>18.42920931345714</v>
       </c>
       <c r="N23">
-        <v>16.84241728703174</v>
+        <v>24.46406925136272</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.48981209520542</v>
+        <v>16.98815185801108</v>
       </c>
       <c r="C24">
-        <v>10.31265128153059</v>
+        <v>8.892473507846791</v>
       </c>
       <c r="D24">
-        <v>2.999451684333214</v>
+        <v>5.378276555151912</v>
       </c>
       <c r="E24">
-        <v>7.612677755673365</v>
+        <v>11.56346078391761</v>
       </c>
       <c r="F24">
-        <v>42.39982235894282</v>
+        <v>49.98494867834281</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.187828443677692</v>
+        <v>10.24615044675661</v>
       </c>
       <c r="K24">
-        <v>15.92544111087187</v>
+        <v>16.34594981081837</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.24274123068863</v>
+        <v>18.34985916363459</v>
       </c>
       <c r="N24">
-        <v>16.95419966921803</v>
+        <v>24.50447014301685</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.88447660356246</v>
+        <v>16.64079141866217</v>
       </c>
       <c r="C25">
-        <v>9.29784898470856</v>
+        <v>8.678121090376061</v>
       </c>
       <c r="D25">
-        <v>2.817128492245513</v>
+        <v>5.383306808568877</v>
       </c>
       <c r="E25">
-        <v>7.320738831601023</v>
+        <v>11.56707445192781</v>
       </c>
       <c r="F25">
-        <v>40.45132048163047</v>
+        <v>49.73294633787103</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.158757307499528</v>
+        <v>10.27163468487228</v>
       </c>
       <c r="K25">
-        <v>14.6430984753786</v>
+        <v>16.12442470455842</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.38928436279087</v>
+        <v>18.27770701164925</v>
       </c>
       <c r="N25">
-        <v>17.09983324054216</v>
+        <v>24.55502383133999</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_203/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.39505822365225</v>
+        <v>15.64661085604566</v>
       </c>
       <c r="C2">
-        <v>8.525222701492561</v>
+        <v>8.563320045787144</v>
       </c>
       <c r="D2">
-        <v>5.390011855418382</v>
+        <v>2.679854529043805</v>
       </c>
       <c r="E2">
-        <v>11.57574284004627</v>
+        <v>7.113971428209323</v>
       </c>
       <c r="F2">
-        <v>49.57651527291281</v>
+        <v>39.06873455809518</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.29394382703299</v>
+        <v>6.146353117704187</v>
       </c>
       <c r="K2">
-        <v>15.97252694999251</v>
+        <v>13.66531623375284</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.23634088441713</v>
+        <v>12.76002844332382</v>
       </c>
       <c r="N2">
-        <v>24.5982423150714</v>
+        <v>17.22623649985436</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.23565866884608</v>
+        <v>14.77502521965005</v>
       </c>
       <c r="C3">
-        <v>8.425275859132224</v>
+        <v>8.04330941961013</v>
       </c>
       <c r="D3">
-        <v>5.396439464675019</v>
+        <v>2.585514362296317</v>
       </c>
       <c r="E3">
-        <v>11.58537427125237</v>
+        <v>6.979292365052721</v>
       </c>
       <c r="F3">
-        <v>49.48887899350202</v>
+        <v>38.16526727226876</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.31127922875067</v>
+        <v>6.143199363791283</v>
       </c>
       <c r="K3">
-        <v>15.87701324052386</v>
+        <v>12.98402169977742</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.21572541783835</v>
+        <v>12.33489033127215</v>
       </c>
       <c r="N3">
-        <v>24.63127097962127</v>
+        <v>17.32284090742852</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.14159039517517</v>
+        <v>14.22492208072611</v>
       </c>
       <c r="C4">
-        <v>8.365915977353689</v>
+        <v>7.713528150315869</v>
       </c>
       <c r="D4">
-        <v>5.40131855331923</v>
+        <v>2.527177393135827</v>
       </c>
       <c r="E4">
-        <v>11.59314335261705</v>
+        <v>6.899410948474133</v>
       </c>
       <c r="F4">
-        <v>49.44419366543298</v>
+        <v>37.62752669124117</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.32301801257107</v>
+        <v>6.143740544147702</v>
       </c>
       <c r="K4">
-        <v>15.82216627869774</v>
+        <v>12.55763823719371</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.20674977420801</v>
+        <v>12.0752620059786</v>
       </c>
       <c r="N4">
-        <v>24.65339467434958</v>
+        <v>17.38725486531094</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.10425483877729</v>
+        <v>13.99722389813421</v>
       </c>
       <c r="C5">
-        <v>8.342260119897347</v>
+        <v>7.576602833136421</v>
       </c>
       <c r="D5">
-        <v>5.403541818846189</v>
+        <v>2.503340416182159</v>
       </c>
       <c r="E5">
-        <v>11.59677618763764</v>
+        <v>6.867585008253956</v>
       </c>
       <c r="F5">
-        <v>49.42828629178091</v>
+        <v>37.41274244791314</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.3280771910496</v>
+        <v>6.144567952948993</v>
       </c>
       <c r="K5">
-        <v>15.80079021640762</v>
+        <v>12.38206750283789</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.20402125706597</v>
+        <v>11.96994366379565</v>
       </c>
       <c r="N5">
-        <v>24.66287388062727</v>
+        <v>17.41474550227585</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.0981167495188</v>
+        <v>13.95920960610342</v>
       </c>
       <c r="C6">
-        <v>8.338365141916627</v>
+        <v>7.553716859758302</v>
       </c>
       <c r="D6">
-        <v>5.403925197621162</v>
+        <v>2.499379645100511</v>
       </c>
       <c r="E6">
-        <v>11.59740762248292</v>
+        <v>6.862344754586859</v>
       </c>
       <c r="F6">
-        <v>49.42578413543126</v>
+        <v>37.37734257760096</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.32893391189463</v>
+        <v>6.144741534618266</v>
       </c>
       <c r="K6">
-        <v>15.79730012768233</v>
+        <v>12.35281139665709</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.20362438668594</v>
+        <v>11.95248869786447</v>
       </c>
       <c r="N6">
-        <v>24.66447589549005</v>
+        <v>17.41938415652618</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1410827805129</v>
+        <v>14.22186519748384</v>
       </c>
       <c r="C7">
-        <v>8.365594747687268</v>
+        <v>7.711691641664778</v>
       </c>
       <c r="D7">
-        <v>5.401347584913045</v>
+        <v>2.526856124666879</v>
       </c>
       <c r="E7">
-        <v>11.59319045559868</v>
+        <v>6.898978766683475</v>
       </c>
       <c r="F7">
-        <v>49.44396980210765</v>
+        <v>37.62461232523496</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.32308512650862</v>
+        <v>6.143749266621843</v>
       </c>
       <c r="K7">
-        <v>15.82187402361793</v>
+        <v>12.55527747282968</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.20670921074456</v>
+        <v>12.07383951651965</v>
       </c>
       <c r="N7">
-        <v>24.65352063719082</v>
+        <v>17.38762063838382</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.33933335829825</v>
+        <v>15.34931284588384</v>
       </c>
       <c r="C8">
-        <v>8.490361969501469</v>
+        <v>8.386249712963579</v>
       </c>
       <c r="D8">
-        <v>5.392034872055737</v>
+        <v>2.647433985489282</v>
       </c>
       <c r="E8">
-        <v>11.57867890912999</v>
+        <v>7.066962136944128</v>
       </c>
       <c r="F8">
-        <v>49.54440998367918</v>
+        <v>38.75373810059726</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.29969399727489</v>
+        <v>6.144741602758272</v>
       </c>
       <c r="K8">
-        <v>15.93881741590485</v>
+        <v>13.43219522450773</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.22847048921924</v>
+        <v>12.61322216148518</v>
       </c>
       <c r="N8">
-        <v>24.6092478494735</v>
+        <v>17.25846200364801</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.75636212660856</v>
+        <v>17.43410663422396</v>
       </c>
       <c r="C9">
-        <v>8.749640890341674</v>
+        <v>9.626464874361938</v>
       </c>
       <c r="D9">
-        <v>5.381147751617591</v>
+        <v>2.87908289766655</v>
       </c>
       <c r="E9">
-        <v>11.56492542711219</v>
+        <v>7.417849285965366</v>
       </c>
       <c r="F9">
-        <v>49.81334306824603</v>
+        <v>41.09968571038948</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.2625002116527</v>
+        <v>6.167101735010652</v>
       </c>
       <c r="K9">
-        <v>16.19736501944233</v>
+        <v>15.08050407818856</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.30019734324537</v>
+        <v>13.67711537542509</v>
       </c>
       <c r="N9">
-        <v>24.53706314533298</v>
+        <v>17.04765046328395</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.07729917188323</v>
+        <v>18.88219057815713</v>
       </c>
       <c r="C10">
-        <v>8.947217428870426</v>
+        <v>10.56551918878067</v>
       </c>
       <c r="D10">
-        <v>5.377610476326076</v>
+        <v>3.044575501809407</v>
       </c>
       <c r="E10">
-        <v>11.56375586316005</v>
+        <v>7.687694970735875</v>
       </c>
       <c r="F10">
-        <v>50.05413698946136</v>
+        <v>42.90043111538067</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.24044919917012</v>
+        <v>6.19707154265054</v>
       </c>
       <c r="K10">
-        <v>16.40380482387852</v>
+        <v>16.24784760635613</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.37034949442822</v>
+        <v>14.4568901206046</v>
       </c>
       <c r="N10">
-        <v>24.49295535631567</v>
+        <v>16.92176413891324</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.22586761958407</v>
+        <v>19.55889569897239</v>
       </c>
       <c r="C11">
-        <v>9.038242865189755</v>
+        <v>10.97586901392274</v>
       </c>
       <c r="D11">
-        <v>5.37696164040238</v>
+        <v>3.118550626862045</v>
       </c>
       <c r="E11">
-        <v>11.56515551078176</v>
+        <v>7.812890442239305</v>
       </c>
       <c r="F11">
-        <v>50.17288486241435</v>
+        <v>43.73613980286481</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.23156002572408</v>
+        <v>6.213902359661368</v>
       </c>
       <c r="K11">
-        <v>16.50099017372074</v>
+        <v>16.87518927377511</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.40598589497818</v>
+        <v>14.81037591587666</v>
       </c>
       <c r="N11">
-        <v>24.47482904465743</v>
+        <v>16.87157953003068</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.28244610970782</v>
+        <v>19.82628634783736</v>
       </c>
       <c r="C12">
-        <v>9.072843642523697</v>
+        <v>11.12892134059216</v>
       </c>
       <c r="D12">
-        <v>5.376853225500351</v>
+        <v>3.146356156505485</v>
       </c>
       <c r="E12">
-        <v>11.56596233606286</v>
+        <v>7.860638403193597</v>
       </c>
       <c r="F12">
-        <v>50.21915784560939</v>
+        <v>44.05499270753292</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.22835787249782</v>
+        <v>6.22075828297463</v>
       </c>
       <c r="K12">
-        <v>16.53823512940017</v>
+        <v>17.10890517210014</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.42000917043437</v>
+        <v>14.94400729249363</v>
       </c>
       <c r="N12">
-        <v>24.46824396038389</v>
+        <v>16.85366917994013</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.2702475527388</v>
+        <v>19.76888391817026</v>
       </c>
       <c r="C13">
-        <v>9.065386430792497</v>
+        <v>11.09606135154625</v>
       </c>
       <c r="D13">
-        <v>5.376870482185145</v>
+        <v>3.140377216816258</v>
       </c>
       <c r="E13">
-        <v>11.56577627740261</v>
+        <v>7.850340087137216</v>
       </c>
       <c r="F13">
-        <v>50.20913437115427</v>
+        <v>43.98621527216064</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.22904022396392</v>
+        <v>6.219259901597193</v>
       </c>
       <c r="K13">
-        <v>16.53019451391102</v>
+        <v>17.058739160875</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.41696561697125</v>
+        <v>14.91523799064275</v>
       </c>
       <c r="N13">
-        <v>24.46964976628758</v>
+        <v>16.85747657550673</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.23051626872378</v>
+        <v>19.58097760550054</v>
       </c>
       <c r="C14">
-        <v>9.041087048783774</v>
+        <v>10.98850707314149</v>
       </c>
       <c r="D14">
-        <v>5.376949974443404</v>
+        <v>3.120842453128651</v>
       </c>
       <c r="E14">
-        <v>11.56521634710816</v>
+        <v>7.816811952218221</v>
       </c>
       <c r="F14">
-        <v>50.1766657119726</v>
+        <v>43.76232397654455</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.2312932974993</v>
+        <v>6.214456595865522</v>
       </c>
       <c r="K14">
-        <v>16.50404562373213</v>
+        <v>16.89449352185811</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.40712904739027</v>
+        <v>14.82137458424824</v>
       </c>
       <c r="N14">
-        <v>24.47428169398224</v>
+        <v>16.87008365970918</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.20621971554718</v>
+        <v>19.46533592527283</v>
       </c>
       <c r="C15">
-        <v>9.026219101866683</v>
+        <v>10.92232508862194</v>
       </c>
       <c r="D15">
-        <v>5.37701651953432</v>
+        <v>3.108849358666866</v>
       </c>
       <c r="E15">
-        <v>11.56490939148091</v>
+        <v>7.796318885159814</v>
       </c>
       <c r="F15">
-        <v>50.1569471866949</v>
+        <v>43.62549600338576</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.232694718761</v>
+        <v>6.211577962679049</v>
       </c>
       <c r="K15">
-        <v>16.48808551836724</v>
+        <v>16.79339151341696</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.40117248018343</v>
+        <v>14.76385001415531</v>
       </c>
       <c r="N15">
-        <v>24.47715521764895</v>
+        <v>16.87795063751237</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.06763727638203</v>
+        <v>18.83998478186982</v>
       </c>
       <c r="C16">
-        <v>8.941288910200464</v>
+        <v>10.53836994037182</v>
       </c>
       <c r="D16">
-        <v>5.377672135372411</v>
+        <v>3.039713000901148</v>
       </c>
       <c r="E16">
-        <v>11.56370318385756</v>
+        <v>7.679561170075052</v>
       </c>
       <c r="F16">
-        <v>50.04656030631167</v>
+        <v>42.84614845004289</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.24105308724868</v>
+        <v>6.196037852271889</v>
       </c>
       <c r="K16">
-        <v>16.39751706114895</v>
+        <v>16.20695755178959</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.36809492574407</v>
+        <v>14.43375953274194</v>
       </c>
       <c r="N16">
-        <v>24.49417897862668</v>
+        <v>16.92519255868783</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.98324403330273</v>
+        <v>18.46801102461907</v>
       </c>
       <c r="C17">
-        <v>8.88945681017446</v>
+        <v>10.29856998055185</v>
       </c>
       <c r="D17">
-        <v>5.378319733818808</v>
+        <v>2.996950114042621</v>
       </c>
       <c r="E17">
-        <v>11.56345732070496</v>
+        <v>7.608549683406094</v>
       </c>
       <c r="F17">
-        <v>49.9811876296212</v>
+        <v>42.37227639750954</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.24647299653719</v>
+        <v>6.18733908445954</v>
       </c>
       <c r="K17">
-        <v>16.34277540055666</v>
+        <v>15.90793403622757</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.34875193894442</v>
+        <v>14.2309023539869</v>
       </c>
       <c r="N17">
-        <v>24.5051191514309</v>
+        <v>16.95603864407659</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.93494849097583</v>
+        <v>18.25230007279499</v>
       </c>
       <c r="C18">
-        <v>8.859754300381685</v>
+        <v>10.15905362248121</v>
       </c>
       <c r="D18">
-        <v>5.378782653834124</v>
+        <v>2.972231774162434</v>
       </c>
       <c r="E18">
-        <v>11.5634977923832</v>
+        <v>7.567936038635556</v>
       </c>
       <c r="F18">
-        <v>49.94445505880805</v>
+        <v>42.10127207430534</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.24969788419579</v>
+        <v>6.182635295300932</v>
       </c>
       <c r="K18">
-        <v>16.31159942055047</v>
+        <v>15.73483753439652</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.33797732429346</v>
+        <v>14.11410945053999</v>
       </c>
       <c r="N18">
-        <v>24.51159410257001</v>
+        <v>16.97444209486422</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.91864012132312</v>
+        <v>18.17896214591207</v>
       </c>
       <c r="C19">
-        <v>8.849717449153061</v>
+        <v>10.11154042040984</v>
       </c>
       <c r="D19">
-        <v>5.378954947042629</v>
+        <v>2.963842219722571</v>
       </c>
       <c r="E19">
-        <v>11.56354276170218</v>
+        <v>7.554224934207563</v>
       </c>
       <c r="F19">
-        <v>49.93216767038049</v>
+        <v>42.00978190019275</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.25080824556202</v>
+        <v>6.181093448533555</v>
       </c>
       <c r="K19">
-        <v>16.30109784558216</v>
+        <v>15.67604134257052</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.33438970392435</v>
+        <v>14.0745474437371</v>
       </c>
       <c r="N19">
-        <v>24.51381774025199</v>
+        <v>16.98078466070945</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.99220282872944</v>
+        <v>18.50779069795833</v>
       </c>
       <c r="C20">
-        <v>8.894963290668453</v>
+        <v>10.32426107160399</v>
       </c>
       <c r="D20">
-        <v>5.378241441451371</v>
+        <v>3.001515100936819</v>
       </c>
       <c r="E20">
-        <v>11.56346467537581</v>
+        <v>7.616085242730576</v>
       </c>
       <c r="F20">
-        <v>49.98805695083229</v>
+        <v>42.42256005978306</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.24588491381205</v>
+        <v>6.188233925461583</v>
       </c>
       <c r="K20">
-        <v>16.34857086239095</v>
+        <v>15.93988035737579</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.35077475829693</v>
+        <v>14.25250914086917</v>
       </c>
       <c r="N20">
-        <v>24.50393566684655</v>
+        <v>16.9526860346491</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.24217806401092</v>
+        <v>19.63628331489957</v>
       </c>
       <c r="C21">
-        <v>9.048221064890543</v>
+        <v>11.02016112180624</v>
       </c>
       <c r="D21">
-        <v>5.376922906440705</v>
+        <v>3.126586043607182</v>
       </c>
       <c r="E21">
-        <v>11.56537330802837</v>
+        <v>7.826650848231122</v>
       </c>
       <c r="F21">
-        <v>50.18616726315032</v>
+        <v>43.82802120631845</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.23062706656099</v>
+        <v>6.215854160799402</v>
       </c>
       <c r="K21">
-        <v>16.51171439117716</v>
+        <v>16.94283974347166</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.4100040001025</v>
+        <v>14.84895096084374</v>
       </c>
       <c r="N21">
-        <v>24.47291361216674</v>
+        <v>16.86635033652191</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.40738613245049</v>
+        <v>20.40687838883006</v>
       </c>
       <c r="C22">
-        <v>9.149134643911344</v>
+        <v>11.46138918064917</v>
       </c>
       <c r="D22">
-        <v>5.376860958288924</v>
+        <v>3.20711313276164</v>
       </c>
       <c r="E22">
-        <v>11.5682336252155</v>
+        <v>7.966242051918707</v>
       </c>
       <c r="F22">
-        <v>50.32324487294807</v>
+        <v>44.76052304757206</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.22161089307628</v>
+        <v>6.236729432730191</v>
       </c>
       <c r="K22">
-        <v>16.62090660858221</v>
+        <v>17.6160954597585</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.45179084824575</v>
+        <v>15.23743470729745</v>
       </c>
       <c r="N22">
-        <v>24.45426496992797</v>
+        <v>16.81633963783929</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.31906046751383</v>
+        <v>19.99779108691111</v>
       </c>
       <c r="C23">
-        <v>9.095217441733709</v>
+        <v>11.22711023563611</v>
       </c>
       <c r="D23">
-        <v>5.376821120165078</v>
+        <v>3.164250662695277</v>
       </c>
       <c r="E23">
-        <v>11.56655979081362</v>
+        <v>7.891561771916915</v>
       </c>
       <c r="F23">
-        <v>50.24939504236414</v>
+        <v>44.26153975532453</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.2263356240086</v>
+        <v>6.225321605106188</v>
       </c>
       <c r="K23">
-        <v>16.56240308225706</v>
+        <v>17.25876634930405</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.42920931345714</v>
+        <v>15.03022559288577</v>
       </c>
       <c r="N23">
-        <v>24.46406925136272</v>
+        <v>16.84241728703175</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.98815185801108</v>
+        <v>18.48981209520544</v>
       </c>
       <c r="C24">
-        <v>8.892473507846791</v>
+        <v>10.31265128153062</v>
       </c>
       <c r="D24">
-        <v>5.378276555151912</v>
+        <v>2.999451684333119</v>
       </c>
       <c r="E24">
-        <v>11.56346078391761</v>
+        <v>7.612677755673322</v>
       </c>
       <c r="F24">
-        <v>49.98494867834281</v>
+        <v>42.39982235894285</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.24615044675661</v>
+        <v>6.187828443677662</v>
       </c>
       <c r="K24">
-        <v>16.34594981081837</v>
+        <v>15.92544111087188</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.34985916363459</v>
+        <v>14.24274123068861</v>
       </c>
       <c r="N24">
-        <v>24.50447014301685</v>
+        <v>16.95419966921808</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.64079141866217</v>
+        <v>16.88447660356246</v>
       </c>
       <c r="C25">
-        <v>8.678121090376061</v>
+        <v>9.2978489847085</v>
       </c>
       <c r="D25">
-        <v>5.383306808568877</v>
+        <v>2.817128492245546</v>
       </c>
       <c r="E25">
-        <v>11.56707445192781</v>
+        <v>7.320738831600949</v>
       </c>
       <c r="F25">
-        <v>49.73294633787103</v>
+        <v>40.45132048163035</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.27163468487228</v>
+        <v>6.158757307499467</v>
       </c>
       <c r="K25">
-        <v>16.12442470455842</v>
+        <v>14.64309847537858</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.27770701164925</v>
+        <v>13.38928436279081</v>
       </c>
       <c r="N25">
-        <v>24.55502383133999</v>
+        <v>17.0998332405421</v>
       </c>
       <c r="O25">
         <v>0</v>
